--- a/Container/Data/Tränke.xlsx
+++ b/Container/Data/Tränke.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F383E-79B6-4A63-8CEE-AB6B52B8DE8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E736BF-426C-4E39-A81C-371E1FF15D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8235" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>

--- a/Container/Data/Tränke.xlsx
+++ b/Container/Data/Tränke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E736BF-426C-4E39-A81C-371E1FF15D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA180D02-DA6F-4B54-99CD-121CD8F4DC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8235" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30315" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
   <si>
     <t>Tränke</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Debuff</t>
+  </si>
+  <si>
+    <t>Gegengift</t>
   </si>
 </sst>
 </file>
@@ -424,17 +427,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -448,7 +451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -462,7 +465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -476,7 +479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -490,7 +493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -504,7 +507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -518,7 +521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -532,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -546,7 +549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -560,7 +563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -571,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -582,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -593,7 +596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -604,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -615,7 +618,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -626,7 +629,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -637,7 +640,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -648,7 +651,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -662,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -676,7 +679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -690,7 +693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -704,7 +707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -718,7 +721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -732,7 +735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -746,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -760,7 +763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="22.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -771,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="22.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -782,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="22.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -793,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="22.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -804,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -818,7 +821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -832,7 +835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -846,7 +849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
@@ -860,7 +863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -874,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
@@ -888,96 +891,78 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-    </row>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
